--- a/Documentation/Sprint Backlog 2.xlsx
+++ b/Documentation/Sprint Backlog 2.xlsx
@@ -59,9 +59,6 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>Spring 1: Total Hours remaining</t>
-  </si>
-  <si>
     <t>SPRINT BACKLOG</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>Discuss input methods with students</t>
-  </si>
-  <si>
-    <t>Sprint 1: Ideal hours remaining:</t>
   </si>
   <si>
     <t>Acceptance testing</t>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>2.5 - As a lecturer I want to be able to select which module and lecturer the class belongs to immediately upon starting the app</t>
+  </si>
+  <si>
+    <t>Sprint 2: Ideal hours remaining:</t>
+  </si>
+  <si>
+    <t>Spring 2: Total Hours remaining</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1: Ideal hours remaining:</c:v>
+                  <c:v>Sprint 2: Ideal hours remaining:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -708,7 +708,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spring 1: Total Hours remaining</c:v>
+                  <c:v>Spring 2: Total Hours remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -788,11 +788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2063011968"/>
-        <c:axId val="2063004896"/>
+        <c:axId val="2104664544"/>
+        <c:axId val="2104132672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063011968"/>
+        <c:axId val="2104664544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063004896"/>
+        <c:crossAx val="2104132672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063004896"/>
+        <c:axId val="2104132672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063011968"/>
+        <c:crossAx val="2104664544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1830,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8">
         <v>3</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
@@ -2449,7 +2449,7 @@
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="24" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D24" s="23">
         <v>20</v>
@@ -2486,7 +2486,7 @@
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="20" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D25" s="12">
         <f>SUM(D11:D22)</f>
